--- a/src/test/resources/xls/tires.xlsx
+++ b/src/test/resources/xls/tires.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Execute</t>
   </si>
@@ -30,6 +30,18 @@
     <t>T0001</t>
   </si>
   <si>
+    <t>T0002</t>
+  </si>
+  <si>
+    <t>T0003</t>
+  </si>
+  <si>
+    <t>T0004</t>
+  </si>
+  <si>
+    <t>Легковые</t>
+  </si>
+  <si>
     <t>carType</t>
   </si>
   <si>
@@ -45,58 +57,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>T0002</t>
-  </si>
-  <si>
-    <t>T0003</t>
-  </si>
-  <si>
-    <t>T0004</t>
-  </si>
-  <si>
-    <t>Легковые</t>
-  </si>
-  <si>
-    <t>T0005</t>
-  </si>
-  <si>
-    <t>T0006</t>
-  </si>
-  <si>
-    <t>T0007</t>
-  </si>
-  <si>
-    <t>T0008</t>
-  </si>
-  <si>
-    <t>T0009</t>
-  </si>
-  <si>
-    <t>T0010</t>
-  </si>
-  <si>
-    <t>T0011</t>
-  </si>
-  <si>
-    <t>T0012</t>
-  </si>
-  <si>
-    <t>T0013</t>
-  </si>
-  <si>
-    <t>Легкогрузовые</t>
-  </si>
-  <si>
-    <t>Внедорожные</t>
-  </si>
-  <si>
-    <t>Грузовые</t>
-  </si>
-  <si>
     <t>зимние</t>
   </si>
   <si>
     <t>летние</t>
+  </si>
+  <si>
+    <t>15"</t>
+  </si>
+  <si>
+    <t>16"</t>
   </si>
 </sst>
 </file>
@@ -441,15 +411,15 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -461,19 +431,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -484,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>205</v>
@@ -492,11 +462,11 @@
       <c r="E2">
         <v>60</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -504,10 +474,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>195</v>
@@ -515,11 +485,11 @@
       <c r="E3">
         <v>60</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -527,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>195</v>
@@ -538,11 +508,11 @@
       <c r="E4">
         <v>60</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -550,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>205</v>
@@ -561,219 +531,39 @@
       <c r="E5">
         <v>60</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>215</v>
-      </c>
-      <c r="E6">
-        <v>65</v>
-      </c>
-      <c r="F6" s="1">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>225</v>
-      </c>
-      <c r="E7">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>235</v>
-      </c>
-      <c r="E8">
-        <v>65</v>
-      </c>
-      <c r="F8" s="1">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>225</v>
-      </c>
-      <c r="E9">
-        <v>70</v>
-      </c>
-      <c r="F9" s="1">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>255</v>
-      </c>
-      <c r="E10">
-        <v>55</v>
-      </c>
-      <c r="F10" s="1">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>255</v>
-      </c>
-      <c r="E11">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>255</v>
-      </c>
-      <c r="E12">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>255</v>
-      </c>
-      <c r="E13">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>205</v>
-      </c>
-      <c r="E14">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/tires.xlsx
+++ b/src/test/resources/xls/tires.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Execute</t>
   </si>
@@ -30,43 +30,40 @@
     <t>T0001</t>
   </si>
   <si>
+    <t>carType</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Легковые</t>
+  </si>
+  <si>
+    <t>16"</t>
+  </si>
+  <si>
+    <t>зимние</t>
+  </si>
+  <si>
     <t>T0002</t>
   </si>
   <si>
+    <t>летние</t>
+  </si>
+  <si>
     <t>T0003</t>
   </si>
   <si>
-    <t>T0004</t>
-  </si>
-  <si>
-    <t>Легковые</t>
-  </si>
-  <si>
-    <t>carType</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>diameter</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>зимние</t>
-  </si>
-  <si>
-    <t>летние</t>
-  </si>
-  <si>
-    <t>15"</t>
-  </si>
-  <si>
-    <t>16"</t>
+    <t>Легкогрузовые</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,8 +416,7 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -431,19 +427,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -454,19 +450,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E2">
         <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -474,22 +470,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E3">
         <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -497,10 +493,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>195</v>
@@ -509,40 +505,14 @@
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>205</v>
-      </c>
-      <c r="E5">
-        <v>60</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>

--- a/src/test/resources/xls/tires.xlsx
+++ b/src/test/resources/xls/tires.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Execute</t>
   </si>
@@ -27,22 +27,31 @@
     <t>Y</t>
   </si>
   <si>
+    <t>carType</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>T0001</t>
   </si>
   <si>
-    <t>carType</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>diameter</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>Грузовые</t>
+  </si>
+  <si>
+    <t>20"</t>
+  </si>
+  <si>
+    <t>универсальная</t>
   </si>
   <si>
     <t>Легковые</t>
@@ -64,6 +73,21 @@
   </si>
   <si>
     <t>Легкогрузовые</t>
+  </si>
+  <si>
+    <t>T0004</t>
+  </si>
+  <si>
+    <t>Внедорожные</t>
+  </si>
+  <si>
+    <t>17"</t>
+  </si>
+  <si>
+    <t>универсальные</t>
+  </si>
+  <si>
+    <t>T0005</t>
   </si>
 </sst>
 </file>
@@ -408,7 +432,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,19 +451,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -447,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>195</v>
@@ -459,10 +483,10 @@
         <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -470,10 +494,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>205</v>
@@ -482,10 +506,10 @@
         <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -493,10 +517,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>195</v>
@@ -505,14 +529,57 @@
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>245</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>315</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
